--- a/tokens2labels/results.xlsx
+++ b/tokens2labels/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\Documents\University\Research\exercise-log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanj\Documents\University\Research\exercise-logs\tokens2labels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A10F9F-70BA-4A44-81C2-C3B833CD8D3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC381898-D991-493C-A034-FBB8AA9EFF1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DD1C8FBC-C60E-41BE-8013-CA1D5750E409}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>Label</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>2-multiclass</t>
+  </si>
+  <si>
+    <t>Binary Match in top-1 Multiclass</t>
   </si>
 </sst>
 </file>
@@ -259,36 +262,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -346,14 +331,50 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -669,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2208FD6E-B457-44BF-A3FB-A229A836D88B}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,133 +703,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="9">
         <f>1/85</f>
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="10">
         <f t="shared" ref="D3" si="0">1/85</f>
         <v>1.1764705882352941E-2</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="11">
         <f>1/10</f>
         <v>0.1</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="10">
         <f>1/10</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="29"/>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="12">
         <v>0.41</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="13">
         <v>0.66169999999999995</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="15">
         <v>5.1700000000000003E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="29"/>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="16">
         <v>0.69</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="13">
         <v>0.74</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="17">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="18">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="30"/>
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="19">
         <v>0.6</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="20">
         <v>0.76500000000000001</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="21">
         <v>0.2833</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="20">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="30">
-        <f t="shared" ref="D7:F7" si="1">1/5</f>
+      <c r="C7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="24">
+        <f t="shared" ref="E7:F7" si="1">1/5</f>
         <v>0.2</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="23">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
@@ -818,20 +839,20 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="27">
+      <c r="C8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="21">
         <v>0.5383</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="20">
         <v>0.55330000000000001</v>
       </c>
       <c r="J8" s="1"/>
@@ -840,23 +861,23 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="30">
-        <f t="shared" ref="D9:F9" si="2">1/3</f>
+      <c r="C9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="24">
+        <f t="shared" ref="E9:F9" si="2">1/3</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="23">
         <f t="shared" si="2"/>
         <v>0.33333333333333331</v>
       </c>
@@ -866,20 +887,20 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="30"/>
+      <c r="B10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="27">
+      <c r="C10" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="21">
         <v>0.6</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="20">
         <v>0.6</v>
       </c>
       <c r="J10" s="1"/>
@@ -888,23 +909,23 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="30">
-        <f t="shared" ref="D11:F11" si="3">1/2</f>
+      <c r="C11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="24">
+        <f t="shared" ref="E11:F11" si="3">1/2</f>
         <v>0.5</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="23">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
@@ -914,132 +935,213 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="30"/>
+      <c r="B12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="27">
+      <c r="C12" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="21">
         <v>0.80330000000000001</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="20">
         <v>0.79659999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="34">
+        <f>1/85</f>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="D13" s="35">
+        <f t="shared" ref="D13:F13" si="4">1/85</f>
+        <v>1.1764705882352941E-2</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="29"/>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="36">
+        <v>1.3299999999999999E-2</v>
+      </c>
+      <c r="D14" s="37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="36">
+        <v>1.67E-2</v>
+      </c>
+      <c r="D15" s="37">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="39"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="32">
+      <c r="C18" s="26">
         <f>1/2</f>
         <v>0.5</v>
       </c>
-      <c r="D13" s="33">
-        <f t="shared" ref="D13:F13" si="4">1/2</f>
+      <c r="D18" s="27">
+        <f t="shared" ref="D18:F18" si="5">1/2</f>
         <v>0.5</v>
       </c>
-      <c r="E13" s="34">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="33">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="9" t="s">
+      <c r="E18" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C19" s="12">
         <v>0.78</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D19" s="15">
         <v>0.78</v>
       </c>
-      <c r="E14" s="35">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F14" s="24">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="9" t="s">
+      <c r="E19" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C20" s="12">
         <v>0.74</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D20" s="13">
         <v>0.83</v>
       </c>
-      <c r="E15" s="20">
-        <v>0.51</v>
-      </c>
-      <c r="F15" s="21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9" t="s">
+      <c r="E20" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C21" s="16">
         <v>0.81</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D21" s="13">
         <v>0.81799999999999995</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="10" t="s">
+      <c r="E21" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="30"/>
+      <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C22" s="19">
         <v>0.76500000000000001</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D22" s="20">
         <v>0.88329999999999997</v>
       </c>
-      <c r="E17" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="E22" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="41" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A18:A22"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="A3:A6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
